--- a/0_0_Data/2_Processed_Data/3_gdp_component_forecast/ifo_qoq_forecasts_GDP.xlsx
+++ b/0_0_Data/2_Processed_Data/3_gdp_component_forecast/ifo_qoq_forecasts_GDP.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dfbe04e23282f0d1/Desktop/ifo/Konjunkturprognose Evaluierung/ifo Forecast Evaluation Workfolder/0_0_Data/2_Processed_Data/3_gdp_component_forecast/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_9E0645280A1092230AFE31D2F87AE380480235B3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14221B03-A83A-4AB5-9FF6-9886E7E57633}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -22,11 +28,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,17 +94,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -136,7 +150,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -170,6 +184,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -204,9 +219,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -379,14 +395,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BA82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="AK56" workbookViewId="0">
+      <selection activeCell="AF52" sqref="AF52"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="37.54296875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -547,15 +568,15 @@
         <v>45891</v>
       </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>39401</v>
       </c>
       <c r="B2">
-        <v>0.4499999999999886</v>
-      </c>
-    </row>
-    <row r="3" spans="1:53">
+        <v>0.44999999999998858</v>
+      </c>
+    </row>
+    <row r="3" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>39493</v>
       </c>
@@ -563,82 +584,82 @@
         <v>0.2250000000000085</v>
       </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>39583</v>
       </c>
       <c r="B4">
-        <v>0.2999999999999829</v>
+        <v>0.29999999999998289</v>
       </c>
       <c r="C4">
-        <v>-0.3499999999999943</v>
-      </c>
-    </row>
-    <row r="5" spans="1:53">
+        <v>-0.34999999999999432</v>
+      </c>
+    </row>
+    <row r="5" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>39675</v>
       </c>
       <c r="B5">
-        <v>0.3500000000000085</v>
+        <v>0.35000000000000853</v>
       </c>
       <c r="C5">
         <v>0.25</v>
       </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>39767</v>
       </c>
       <c r="B6">
-        <v>0.4000000000000057</v>
+        <v>0.40000000000000568</v>
       </c>
       <c r="C6">
-        <v>0.3599999999999994</v>
+        <v>0.35999999999999938</v>
       </c>
       <c r="D6">
-        <v>-0.8999999999999915</v>
-      </c>
-    </row>
-    <row r="7" spans="1:53">
+        <v>-0.89999999999999147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>39859</v>
       </c>
       <c r="C7">
-        <v>0.3250000000000028</v>
+        <v>0.32500000000000279</v>
       </c>
       <c r="D7">
-        <v>-0.6500000000000057</v>
-      </c>
-    </row>
-    <row r="8" spans="1:53">
+        <v>-0.65000000000000568</v>
+      </c>
+    </row>
+    <row r="8" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>39948</v>
       </c>
       <c r="C8">
-        <v>0.2999999999999829</v>
+        <v>0.29999999999998289</v>
       </c>
       <c r="D8">
-        <v>-0.4000000000000057</v>
+        <v>-0.40000000000000568</v>
       </c>
       <c r="E8">
-        <v>-0.7000000000000171</v>
-      </c>
-    </row>
-    <row r="9" spans="1:53">
+        <v>-0.70000000000001705</v>
+      </c>
+    </row>
+    <row r="9" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>40040</v>
       </c>
       <c r="C9">
-        <v>0.2750000000000057</v>
+        <v>0.27500000000000568</v>
       </c>
       <c r="D9">
-        <v>-0.3000000000000114</v>
+        <v>-0.30000000000001142</v>
       </c>
       <c r="E9">
-        <v>0.2000000000000028</v>
-      </c>
-    </row>
-    <row r="10" spans="1:53">
+        <v>0.20000000000000279</v>
+      </c>
+    </row>
+    <row r="10" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>40132</v>
       </c>
@@ -646,27 +667,27 @@
         <v>0.25</v>
       </c>
       <c r="D10">
-        <v>-0.2499999999999858</v>
+        <v>-0.24999999999998579</v>
       </c>
       <c r="E10">
-        <v>-0.2999999999999972</v>
+        <v>-0.29999999999999721</v>
       </c>
       <c r="F10">
-        <v>0.4999999999999858</v>
-      </c>
-    </row>
-    <row r="11" spans="1:53">
+        <v>0.49999999999998579</v>
+      </c>
+    </row>
+    <row r="11" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>40224</v>
       </c>
       <c r="E11">
-        <v>-0.3000000000000114</v>
+        <v>-0.30000000000001142</v>
       </c>
       <c r="F11">
-        <v>0.4200000000000017</v>
-      </c>
-    </row>
-    <row r="12" spans="1:53">
+        <v>0.42000000000000171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>40313</v>
       </c>
@@ -674,13 +695,13 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.2000000000000028</v>
+        <v>0.20000000000000279</v>
       </c>
       <c r="G12">
-        <v>1.099999999999994</v>
-      </c>
-    </row>
-    <row r="13" spans="1:53">
+        <v>1.0999999999999941</v>
+      </c>
+    </row>
+    <row r="13" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>40405</v>
       </c>
@@ -688,13 +709,13 @@
         <v>0.25</v>
       </c>
       <c r="F13">
-        <v>0.2000000000000028</v>
+        <v>0.20000000000000279</v>
       </c>
       <c r="G13">
-        <v>0.4999999999999858</v>
-      </c>
-    </row>
-    <row r="14" spans="1:53">
+        <v>0.49999999999998579</v>
+      </c>
+    </row>
+    <row r="14" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>40497</v>
       </c>
@@ -702,32 +723,32 @@
         <v>0.25</v>
       </c>
       <c r="F14">
-        <v>0.2999999999999829</v>
+        <v>0.29999999999998289</v>
       </c>
       <c r="G14">
-        <v>0.2999999999999829</v>
+        <v>0.29999999999998289</v>
       </c>
       <c r="H14">
         <v>0.8</v>
       </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>40589</v>
       </c>
       <c r="G15">
-        <v>0.2999999999999829</v>
+        <v>0.29999999999998289</v>
       </c>
       <c r="H15">
         <v>0.3</v>
       </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>40678</v>
       </c>
       <c r="G16">
-        <v>0.3250000000000028</v>
+        <v>0.32500000000000279</v>
       </c>
       <c r="H16">
         <v>0.4</v>
@@ -736,12 +757,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>40770</v>
       </c>
       <c r="G17">
-        <v>0.3500000000000085</v>
+        <v>0.35000000000000853</v>
       </c>
       <c r="H17">
         <v>0.5</v>
@@ -750,12 +771,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>40862</v>
       </c>
       <c r="G18">
-        <v>0.4000000000000057</v>
+        <v>0.40000000000000568</v>
       </c>
       <c r="H18">
         <v>0.5</v>
@@ -767,7 +788,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>40954</v>
       </c>
@@ -778,7 +799,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>41044</v>
       </c>
@@ -792,7 +813,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>41136</v>
       </c>
@@ -806,7 +827,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>41228</v>
       </c>
@@ -823,7 +844,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>41320</v>
       </c>
@@ -834,7 +855,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>41409</v>
       </c>
@@ -845,10 +866,10 @@
         <v>0.3</v>
       </c>
       <c r="M24">
-        <v>0.8999999999999915</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.89999999999999147</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>41501</v>
       </c>
@@ -859,10 +880,10 @@
         <v>0.4</v>
       </c>
       <c r="M25">
-        <v>0.4200000000000017</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
+        <v>0.42000000000000171</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>41593</v>
       </c>
@@ -873,456 +894,456 @@
         <v>0.5</v>
       </c>
       <c r="M26">
-        <v>0.4000000000000057</v>
+        <v>0.40000000000000568</v>
       </c>
       <c r="N26">
         <v>0.3</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>41685</v>
       </c>
       <c r="M27">
-        <v>0.4000000000000057</v>
+        <v>0.40000000000000568</v>
       </c>
       <c r="N27">
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>41774</v>
       </c>
       <c r="M28">
-        <v>0.4499999999999886</v>
+        <v>0.44999999999998858</v>
       </c>
       <c r="N28">
         <v>0.5</v>
       </c>
       <c r="O28">
-        <v>0.2999999999999829</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
+        <v>0.29999999999998289</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>41866</v>
       </c>
       <c r="M29">
-        <v>0.4999999999999858</v>
+        <v>0.49999999999998579</v>
       </c>
       <c r="N29">
         <v>0.6</v>
       </c>
       <c r="O29">
-        <v>0.4000000000000057</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
+        <v>0.40000000000000568</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>41958</v>
       </c>
       <c r="M30">
-        <v>0.4999999999999858</v>
+        <v>0.49999999999998579</v>
       </c>
       <c r="N30">
         <v>0.6</v>
       </c>
       <c r="O30">
-        <v>0.4499999999999886</v>
+        <v>0.44999999999998858</v>
       </c>
       <c r="P30">
-        <v>0.2000000000000028</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
+        <v>0.20000000000000279</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>42050</v>
       </c>
       <c r="O31">
-        <v>0.5200000000000102</v>
+        <v>0.52000000000001023</v>
       </c>
       <c r="P31">
-        <v>0.4200000000000017</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
+        <v>0.42000000000000171</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>42139</v>
       </c>
       <c r="O32">
-        <v>0.5200000000000102</v>
+        <v>0.52000000000001023</v>
       </c>
       <c r="P32">
-        <v>0.4200000000000017</v>
+        <v>0.42000000000000171</v>
       </c>
       <c r="Q32">
-        <v>0.6200000000000045</v>
-      </c>
-    </row>
-    <row r="33" spans="1:28">
+        <v>0.62000000000000455</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>42231</v>
       </c>
       <c r="O33">
-        <v>0.5200000000000102</v>
+        <v>0.52000000000001023</v>
       </c>
       <c r="P33">
-        <v>0.4200000000000017</v>
+        <v>0.42000000000000171</v>
       </c>
       <c r="Q33">
-        <v>0.4200000000000017</v>
-      </c>
-    </row>
-    <row r="34" spans="1:28">
+        <v>0.42000000000000171</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>42323</v>
       </c>
       <c r="O34">
-        <v>0.5200000000000102</v>
+        <v>0.52000000000001023</v>
       </c>
       <c r="P34">
-        <v>0.4200000000000017</v>
+        <v>0.42000000000000171</v>
       </c>
       <c r="Q34">
-        <v>0.4000000000000057</v>
+        <v>0.40000000000000568</v>
       </c>
       <c r="R34">
-        <v>0.3000000000000114</v>
-      </c>
-    </row>
-    <row r="35" spans="1:28">
+        <v>0.30000000000001142</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>42415</v>
       </c>
       <c r="Q35">
-        <v>0.4000000000000057</v>
+        <v>0.40000000000000568</v>
       </c>
       <c r="R35">
-        <v>0.5400000000000063</v>
-      </c>
-    </row>
-    <row r="36" spans="1:28">
+        <v>0.54000000000000625</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>42505</v>
       </c>
       <c r="Q36">
-        <v>0.4000000000000057</v>
+        <v>0.40000000000000568</v>
       </c>
       <c r="R36">
-        <v>0.5200000000000102</v>
+        <v>0.52000000000001023</v>
       </c>
       <c r="S36">
-        <v>0.3400000000000034</v>
-      </c>
-    </row>
-    <row r="37" spans="1:28">
+        <v>0.34000000000000341</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>42597</v>
       </c>
       <c r="Q37">
-        <v>0.4000000000000057</v>
+        <v>0.40000000000000568</v>
       </c>
       <c r="R37">
-        <v>0.5100000000000051</v>
+        <v>0.51000000000000512</v>
       </c>
       <c r="S37">
-        <v>0.4399999999999977</v>
-      </c>
-    </row>
-    <row r="38" spans="1:28">
+        <v>0.43999999999999773</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>42689</v>
       </c>
       <c r="Q38">
-        <v>0.4000000000000057</v>
+        <v>0.40000000000000568</v>
       </c>
       <c r="R38">
-        <v>0.4699999999999989</v>
+        <v>0.46999999999999892</v>
       </c>
       <c r="S38">
-        <v>0.4399999999999977</v>
+        <v>0.43999999999999773</v>
       </c>
       <c r="T38">
-        <v>0.4999999999999858</v>
-      </c>
-    </row>
-    <row r="39" spans="1:28">
+        <v>0.49999999999998579</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>42781</v>
       </c>
       <c r="R39">
-        <v>0.4490000000000123</v>
+        <v>0.44900000000001228</v>
       </c>
       <c r="S39">
-        <v>0.4799999999999898</v>
+        <v>0.47999999999998982</v>
       </c>
       <c r="T39">
-        <v>0.4999999999999858</v>
-      </c>
-    </row>
-    <row r="40" spans="1:28">
+        <v>0.49999999999998579</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>42870</v>
       </c>
       <c r="R40">
-        <v>0.4490000000000123</v>
+        <v>0.44900000000001228</v>
       </c>
       <c r="S40">
-        <v>0.4799999999999898</v>
+        <v>0.47999999999998982</v>
       </c>
       <c r="T40">
-        <v>0.4490000000000123</v>
+        <v>0.44900000000001228</v>
       </c>
       <c r="U40">
-        <v>0.6999999999999886</v>
-      </c>
-    </row>
-    <row r="41" spans="1:28">
+        <v>0.69999999999998863</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>42962</v>
       </c>
       <c r="R41">
-        <v>0.4490000000000123</v>
+        <v>0.44900000000001228</v>
       </c>
       <c r="S41">
-        <v>0.4799999999999898</v>
+        <v>0.47999999999998982</v>
       </c>
       <c r="T41">
-        <v>0.4490000000000123</v>
+        <v>0.44900000000001228</v>
       </c>
       <c r="U41">
-        <v>0.5999999999999943</v>
-      </c>
-    </row>
-    <row r="42" spans="1:28">
+        <v>0.59999999999999432</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>43054</v>
       </c>
       <c r="R42">
-        <v>0.4490000000000123</v>
+        <v>0.44900000000001228</v>
       </c>
       <c r="S42">
-        <v>0.4799999999999898</v>
+        <v>0.47999999999998982</v>
       </c>
       <c r="T42">
-        <v>0.4499999999999886</v>
+        <v>0.44999999999998858</v>
       </c>
       <c r="U42">
-        <v>0.4999999999999858</v>
+        <v>0.49999999999998579</v>
       </c>
       <c r="V42">
-        <v>0.5999999999999943</v>
-      </c>
-    </row>
-    <row r="43" spans="1:28">
+        <v>0.59999999999999432</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>43146</v>
       </c>
       <c r="T43">
-        <v>0.4000000000000057</v>
+        <v>0.40000000000000568</v>
       </c>
       <c r="U43">
-        <v>0.4499999999999886</v>
+        <v>0.44999999999998858</v>
       </c>
       <c r="V43">
-        <v>0.6999999999999886</v>
+        <v>0.69999999999998863</v>
       </c>
       <c r="W43">
-        <v>0.6999999999999886</v>
-      </c>
-    </row>
-    <row r="44" spans="1:28">
+        <v>0.69999999999998863</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>43235</v>
       </c>
       <c r="T44">
-        <v>0.4000000000000057</v>
+        <v>0.40000000000000568</v>
       </c>
       <c r="U44">
-        <v>0.4499999999999886</v>
+        <v>0.44999999999998858</v>
       </c>
       <c r="V44">
-        <v>0.5999999999999943</v>
+        <v>0.59999999999999432</v>
       </c>
       <c r="W44">
-        <v>0.6150000000000091</v>
+        <v>0.61500000000000909</v>
       </c>
       <c r="X44">
-        <v>0.2999999999999829</v>
-      </c>
-    </row>
-    <row r="45" spans="1:28">
+        <v>0.29999999999998289</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>43327</v>
       </c>
       <c r="T45">
-        <v>0.4000000000000057</v>
+        <v>0.40000000000000568</v>
       </c>
       <c r="U45">
-        <v>0.4499999999999886</v>
+        <v>0.44999999999998858</v>
       </c>
       <c r="V45">
-        <v>0.5999999999999943</v>
+        <v>0.59999999999999432</v>
       </c>
       <c r="W45">
-        <v>0.5490000000000066</v>
+        <v>0.54900000000000659</v>
       </c>
       <c r="X45">
-        <v>0.4000000000000057</v>
+        <v>0.40000000000000568</v>
       </c>
       <c r="Y45">
-        <v>0.4999999999999716</v>
-      </c>
-    </row>
-    <row r="46" spans="1:28">
+        <v>0.49999999999997158</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>43419</v>
       </c>
       <c r="T46">
-        <v>0.4000000000000057</v>
+        <v>0.40000000000000568</v>
       </c>
       <c r="U46">
-        <v>0.4499999999999886</v>
+        <v>0.44999999999998858</v>
       </c>
       <c r="V46">
-        <v>0.5500000000000114</v>
+        <v>0.55000000000001137</v>
       </c>
       <c r="W46">
-        <v>0.4999999999999858</v>
+        <v>0.49999999999998579</v>
       </c>
       <c r="X46">
-        <v>0.4000000000000057</v>
+        <v>0.40000000000000568</v>
       </c>
       <c r="Y46">
-        <v>0.4999999999999858</v>
+        <v>0.49999999999998579</v>
       </c>
       <c r="Z46">
         <v>0.2</v>
       </c>
     </row>
-    <row r="47" spans="1:28">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>43511</v>
       </c>
       <c r="V47">
-        <v>0.4999999999999858</v>
+        <v>0.49999999999998579</v>
       </c>
       <c r="W47">
-        <v>0.5999999999999943</v>
+        <v>0.59999999999999432</v>
       </c>
       <c r="X47">
-        <v>0.5490000000000066</v>
+        <v>0.54900000000000659</v>
       </c>
       <c r="Y47">
-        <v>0.5490000000000066</v>
+        <v>0.54900000000000659</v>
       </c>
       <c r="Z47">
         <v>0.4</v>
       </c>
       <c r="AA47">
-        <v>0.09999999999999432</v>
-      </c>
-    </row>
-    <row r="48" spans="1:28">
+        <v>9.9999999999994316E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>43600</v>
       </c>
       <c r="V48">
-        <v>0.4999999999999858</v>
+        <v>0.49999999999998579</v>
       </c>
       <c r="W48">
-        <v>0.4999999999999858</v>
+        <v>0.49999999999998579</v>
       </c>
       <c r="X48">
-        <v>0.4999999999999858</v>
+        <v>0.49999999999998579</v>
       </c>
       <c r="Y48">
-        <v>0.4999999999999858</v>
+        <v>0.49999999999998579</v>
       </c>
       <c r="Z48">
         <v>0.4</v>
       </c>
       <c r="AA48">
-        <v>0.2999999999999829</v>
+        <v>0.29999999999998289</v>
       </c>
       <c r="AB48">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="49" spans="1:44">
+    <row r="49" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>43692</v>
       </c>
       <c r="V49">
-        <v>0.4999999999999858</v>
+        <v>0.49999999999998579</v>
       </c>
       <c r="W49">
-        <v>0.4999999999999858</v>
+        <v>0.49999999999998579</v>
       </c>
       <c r="X49">
-        <v>0.4490000000000123</v>
+        <v>0.44900000000001228</v>
       </c>
       <c r="Y49">
-        <v>0.4490000000000123</v>
+        <v>0.44900000000001228</v>
       </c>
       <c r="Z49">
         <v>0.3</v>
       </c>
       <c r="AA49">
-        <v>0.3500000000000085</v>
+        <v>0.35000000000000853</v>
       </c>
       <c r="AB49">
         <v>0.3</v>
       </c>
       <c r="AC49">
-        <v>-0.09999999999999432</v>
-      </c>
-    </row>
-    <row r="50" spans="1:44">
+        <v>-9.9999999999994316E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>43784</v>
       </c>
       <c r="V50">
-        <v>0.4999999999999858</v>
+        <v>0.49999999999998579</v>
       </c>
       <c r="W50">
-        <v>0.4999999999999858</v>
+        <v>0.49999999999998579</v>
       </c>
       <c r="X50">
-        <v>0.4490000000000123</v>
+        <v>0.44900000000001228</v>
       </c>
       <c r="Y50">
-        <v>0.3500000000000085</v>
+        <v>0.35000000000000853</v>
       </c>
       <c r="Z50">
         <v>0.3</v>
       </c>
       <c r="AA50">
-        <v>0.3500000000000085</v>
+        <v>0.35000000000000853</v>
       </c>
       <c r="AB50">
         <v>0.3</v>
       </c>
       <c r="AC50">
-        <v>0.09999999999999432</v>
+        <v>9.9999999999994316E-2</v>
       </c>
       <c r="AD50">
-        <v>0.08000000000004093</v>
-      </c>
-    </row>
-    <row r="51" spans="1:44">
+        <v>8.0000000000040927E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>43876</v>
       </c>
       <c r="Y51">
-        <v>0.2999999999999829</v>
+        <v>0.29999999999998289</v>
       </c>
       <c r="Z51">
         <v>0.3</v>
       </c>
       <c r="AA51">
-        <v>0.3500000000000085</v>
+        <v>0.35000000000000853</v>
       </c>
       <c r="AB51">
         <v>0.3</v>
@@ -1331,97 +1352,97 @@
         <v>0.25</v>
       </c>
       <c r="AD51">
-        <v>0.2399999999999949</v>
+        <v>0.23999999999999491</v>
       </c>
       <c r="AE51">
-        <v>0.09999999999999432</v>
-      </c>
-    </row>
-    <row r="52" spans="1:44">
+        <v>9.9999999999994316E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>43966</v>
       </c>
       <c r="Y52">
-        <v>0.2999999999999829</v>
+        <v>0.29999999999998289</v>
       </c>
       <c r="Z52">
         <v>0.3</v>
       </c>
       <c r="AA52">
-        <v>0.3500000000000085</v>
+        <v>0.35000000000000853</v>
       </c>
       <c r="AB52">
         <v>0.3</v>
       </c>
       <c r="AC52">
-        <v>0.3490000000000038</v>
+        <v>0.34900000000000381</v>
       </c>
       <c r="AD52">
-        <v>0.289999999999992</v>
+        <v>0.28999999999999199</v>
       </c>
       <c r="AE52">
-        <v>-4.500000000000028</v>
+        <v>-4.5000000000000284</v>
       </c>
       <c r="AF52">
         <v>-11.9</v>
       </c>
     </row>
-    <row r="53" spans="1:44">
+    <row r="53" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>44058</v>
       </c>
       <c r="Y53">
-        <v>0.2999999999999829</v>
+        <v>0.29999999999998289</v>
       </c>
       <c r="Z53">
         <v>0.3</v>
       </c>
       <c r="AA53">
-        <v>0.3500000000000085</v>
+        <v>0.35000000000000853</v>
       </c>
       <c r="AB53">
         <v>0.3</v>
       </c>
       <c r="AC53">
-        <v>0.3490000000000038</v>
+        <v>0.34900000000000381</v>
       </c>
       <c r="AD53">
-        <v>0.3300000000000125</v>
+        <v>0.33000000000001251</v>
       </c>
       <c r="AE53">
-        <v>1.999999999999957</v>
+        <v>1.9999999999999569</v>
       </c>
       <c r="AF53">
         <v>6.9</v>
       </c>
       <c r="AG53">
-        <v>6.640000000000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:44">
+        <v>6.6400000000000006</v>
+      </c>
+    </row>
+    <row r="54" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>44150</v>
       </c>
       <c r="Y54">
-        <v>0.2999999999999829</v>
+        <v>0.29999999999998289</v>
       </c>
       <c r="Z54">
         <v>0.3</v>
       </c>
       <c r="AA54">
-        <v>0.3500000000000085</v>
+        <v>0.35000000000000853</v>
       </c>
       <c r="AB54">
         <v>0.3</v>
       </c>
       <c r="AC54">
-        <v>0.3490000000000038</v>
+        <v>0.34900000000000381</v>
       </c>
       <c r="AD54">
-        <v>0.3400000000000034</v>
+        <v>0.34000000000000341</v>
       </c>
       <c r="AE54">
-        <v>1.699999999999989</v>
+        <v>1.6999999999999891</v>
       </c>
       <c r="AF54">
         <v>3.8</v>
@@ -1430,73 +1451,73 @@
         <v>2.752121286959607</v>
       </c>
       <c r="AH54">
-        <v>-0.4000000000000057</v>
-      </c>
-    </row>
-    <row r="55" spans="1:44">
+        <v>-0.40000000000000568</v>
+      </c>
+    </row>
+    <row r="55" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>44242</v>
       </c>
       <c r="AC55">
-        <v>0.3490000000000038</v>
+        <v>0.34900000000000381</v>
       </c>
       <c r="AD55">
-        <v>0.4000000000000057</v>
+        <v>0.40000000000000568</v>
       </c>
       <c r="AE55">
         <v>1.499999999999986</v>
       </c>
       <c r="AF55">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AG55">
         <v>1.35673533549307</v>
       </c>
       <c r="AH55">
-        <v>0.5884439773270884</v>
+        <v>0.58844397732708842</v>
       </c>
       <c r="AI55">
-        <v>-0.7094799999999992</v>
-      </c>
-    </row>
-    <row r="56" spans="1:44">
+        <v>-0.70947999999999922</v>
+      </c>
+    </row>
+    <row r="56" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>44331</v>
       </c>
       <c r="AC56">
-        <v>0.3490000000000038</v>
+        <v>0.34900000000000381</v>
       </c>
       <c r="AD56">
-        <v>0.4000000000000057</v>
+        <v>0.40000000000000568</v>
       </c>
       <c r="AE56">
         <v>1.000000000000028</v>
       </c>
       <c r="AF56">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AG56">
-        <v>0.8250000000000028</v>
+        <v>0.82500000000000284</v>
       </c>
       <c r="AH56">
         <v>2.600000000000009</v>
       </c>
       <c r="AI56">
-        <v>2.056410000000014</v>
+        <v>2.0564100000000138</v>
       </c>
       <c r="AJ56">
         <v>1.310000000000016</v>
       </c>
     </row>
-    <row r="57" spans="1:44">
+    <row r="57" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>44423</v>
       </c>
       <c r="AC57">
-        <v>0.3490000000000038</v>
+        <v>0.34900000000000381</v>
       </c>
       <c r="AD57">
-        <v>0.3799999999999955</v>
+        <v>0.37999999999999551</v>
       </c>
       <c r="AE57">
         <v>0.3821739059768845</v>
@@ -1505,71 +1526,71 @@
         <v>0.5</v>
       </c>
       <c r="AG57">
-        <v>0.4999999999999858</v>
+        <v>0.49999999999998579</v>
       </c>
       <c r="AH57">
-        <v>0.7060416926399853</v>
+        <v>0.70604169263998529</v>
       </c>
       <c r="AI57">
         <v>1.84899999999999</v>
       </c>
       <c r="AJ57">
-        <v>3.560000000000002</v>
+        <v>3.5600000000000018</v>
       </c>
       <c r="AK57">
         <v>1.52000000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:44">
+    <row r="58" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>44515</v>
       </c>
       <c r="AC58">
-        <v>0.3490000000000038</v>
+        <v>0.34900000000000381</v>
       </c>
       <c r="AD58">
-        <v>0.3400000000000034</v>
+        <v>0.34000000000000341</v>
       </c>
       <c r="AE58">
-        <v>0.3419376685053805</v>
+        <v>0.34193766850538049</v>
       </c>
       <c r="AF58">
         <v>0.4</v>
       </c>
       <c r="AG58">
-        <v>0.392417277716504</v>
+        <v>0.39241727771650398</v>
       </c>
       <c r="AH58">
-        <v>0.599752004175059</v>
+        <v>0.59975200417505903</v>
       </c>
       <c r="AI58">
-        <v>0.8564599999999984</v>
+        <v>0.85645999999999844</v>
       </c>
       <c r="AJ58">
         <v>1.500392903354637</v>
       </c>
       <c r="AK58">
-        <v>1.299999999999983</v>
+        <v>1.2999999999999829</v>
       </c>
       <c r="AL58">
-        <v>-0.539999999999992</v>
-      </c>
-    </row>
-    <row r="59" spans="1:44">
+        <v>-0.53999999999999204</v>
+      </c>
+    </row>
+    <row r="59" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>44607</v>
       </c>
       <c r="AG59">
-        <v>0.3892477923702176</v>
+        <v>0.38924779237021762</v>
       </c>
       <c r="AH59">
-        <v>0.4639324016758237</v>
+        <v>0.46393240167582372</v>
       </c>
       <c r="AI59">
-        <v>0.48702</v>
+        <v>0.48702000000000001</v>
       </c>
       <c r="AJ59">
-        <v>0.4867323308394456</v>
+        <v>0.48673233083944561</v>
       </c>
       <c r="AK59">
         <v>1.66</v>
@@ -1578,24 +1599,24 @@
         <v>-0.01</v>
       </c>
       <c r="AM59">
-        <v>0.4652855479103435</v>
-      </c>
-    </row>
-    <row r="60" spans="1:44">
+        <v>0.46528554791034349</v>
+      </c>
+    </row>
+    <row r="60" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>44696</v>
       </c>
       <c r="AG60">
-        <v>0.389918942900791</v>
+        <v>0.38991894290079099</v>
       </c>
       <c r="AH60">
         <v>0.4396079355184761</v>
       </c>
       <c r="AI60">
-        <v>0.45723</v>
+        <v>0.45723000000000003</v>
       </c>
       <c r="AJ60">
-        <v>0.4615552350996976</v>
+        <v>0.46155523509969759</v>
       </c>
       <c r="AK60">
         <v>1.17</v>
@@ -1604,27 +1625,27 @@
         <v>2.34</v>
       </c>
       <c r="AM60">
-        <v>0.9923981685675987</v>
+        <v>0.99239816856759866</v>
       </c>
       <c r="AN60">
         <v>0.38</v>
       </c>
     </row>
-    <row r="61" spans="1:44">
+    <row r="61" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>44788</v>
       </c>
       <c r="AG61">
-        <v>0.3905935028011953</v>
+        <v>0.39059350280119531</v>
       </c>
       <c r="AH61">
-        <v>0.4314074455284789</v>
+        <v>0.43140744552847887</v>
       </c>
       <c r="AI61">
-        <v>0.4329</v>
+        <v>0.43290000000000001</v>
       </c>
       <c r="AJ61">
-        <v>0.4306032481654398</v>
+        <v>0.43060324816543982</v>
       </c>
       <c r="AK61">
         <v>0.71</v>
@@ -1642,30 +1663,30 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="62" spans="1:44">
+    <row r="62" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>44880</v>
       </c>
       <c r="AG62">
-        <v>0.3912714966652686</v>
+        <v>0.39127149666526861</v>
       </c>
       <c r="AH62">
-        <v>0.4239375625172149</v>
+        <v>0.42393756251721493</v>
       </c>
       <c r="AI62">
-        <v>0.42597</v>
+        <v>0.42597000000000002</v>
       </c>
       <c r="AJ62">
-        <v>0.4251122424301368</v>
+        <v>0.42511224243013679</v>
       </c>
       <c r="AK62">
         <v>0.49</v>
       </c>
       <c r="AL62">
-        <v>0.8100000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="AM62">
-        <v>1.109885837708147</v>
+        <v>1.1098858377081471</v>
       </c>
       <c r="AN62">
         <v>1.4</v>
@@ -1674,10 +1695,10 @@
         <v>-0.18</v>
       </c>
       <c r="AP62">
-        <v>-0.29</v>
-      </c>
-    </row>
-    <row r="63" spans="1:44">
+        <v>-0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="63" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>44972</v>
       </c>
@@ -1688,7 +1709,7 @@
         <v>0.53</v>
       </c>
       <c r="AM63">
-        <v>0.8907665627173156</v>
+        <v>0.89076656271731558</v>
       </c>
       <c r="AN63">
         <v>1.04</v>
@@ -1703,7 +1724,7 @@
         <v>-0.2078779574152918</v>
       </c>
     </row>
-    <row r="64" spans="1:44">
+    <row r="64" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>45061</v>
       </c>
@@ -1714,7 +1735,7 @@
         <v>0.32</v>
       </c>
       <c r="AM64">
-        <v>0.7368271734067955</v>
+        <v>0.73682717340679549</v>
       </c>
       <c r="AN64">
         <v>0.8397473563905411</v>
@@ -1723,16 +1744,16 @@
         <v>0</v>
       </c>
       <c r="AP64">
-        <v>0.06953162841598726</v>
+        <v>6.9531628415987257E-2</v>
       </c>
       <c r="AQ64">
-        <v>0.06486426577477289</v>
+        <v>6.4864265774772889E-2</v>
       </c>
       <c r="AR64">
         <v>0.1206478331785803</v>
       </c>
     </row>
-    <row r="65" spans="1:53">
+    <row r="65" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>45153</v>
       </c>
@@ -1743,19 +1764,19 @@
         <v>0.26</v>
       </c>
       <c r="AM65">
-        <v>0.4835366100679694</v>
+        <v>0.48353661006796939</v>
       </c>
       <c r="AN65">
-        <v>0.617601205077456</v>
+        <v>0.61760120507745597</v>
       </c>
       <c r="AO65">
         <v>0.48</v>
       </c>
       <c r="AP65">
-        <v>0.551740489547953</v>
+        <v>0.55174048954795296</v>
       </c>
       <c r="AQ65">
-        <v>0.4553446893433346</v>
+        <v>0.45534468934333461</v>
       </c>
       <c r="AR65">
         <v>0.18</v>
@@ -1764,7 +1785,7 @@
         <v>-0.18</v>
       </c>
     </row>
-    <row r="66" spans="1:53">
+    <row r="66" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>45245</v>
       </c>
@@ -1775,7 +1796,7 @@
         <v>0.26</v>
       </c>
       <c r="AM66">
-        <v>0.3460492607517462</v>
+        <v>0.34604926075174619</v>
       </c>
       <c r="AN66">
         <v>0.42</v>
@@ -1784,10 +1805,10 @@
         <v>0.48</v>
       </c>
       <c r="AP66">
-        <v>0.502083469095723</v>
+        <v>0.50208346909572299</v>
       </c>
       <c r="AQ66">
-        <v>0.56137382150105</v>
+        <v>0.56137382150104997</v>
       </c>
       <c r="AR66">
         <v>0.42</v>
@@ -1796,10 +1817,10 @@
         <v>0.32</v>
       </c>
       <c r="AT66">
-        <v>0.044</v>
-      </c>
-    </row>
-    <row r="67" spans="1:53">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>45337</v>
       </c>
@@ -1807,10 +1828,10 @@
         <v>0.51</v>
       </c>
       <c r="AP67">
-        <v>0.4192972035713893</v>
+        <v>0.41929720357138928</v>
       </c>
       <c r="AQ67">
-        <v>0.5263959846508897</v>
+        <v>0.52639598465088966</v>
       </c>
       <c r="AR67">
         <v>0.5</v>
@@ -1822,10 +1843,10 @@
         <v>0.2939713448086394</v>
       </c>
       <c r="AU67">
-        <v>-0.08251004046350374</v>
-      </c>
-    </row>
-    <row r="68" spans="1:53">
+        <v>-8.2510040463503742E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>45427</v>
       </c>
@@ -1833,28 +1854,28 @@
         <v>0.48</v>
       </c>
       <c r="AP68">
-        <v>0.3657167307479057</v>
+        <v>0.36571673074790573</v>
       </c>
       <c r="AQ68">
-        <v>0.4257107569248291</v>
+        <v>0.42571075692482913</v>
       </c>
       <c r="AR68">
         <v>0.46</v>
       </c>
       <c r="AS68">
-        <v>0.5611476945050384</v>
+        <v>0.56114769450503843</v>
       </c>
       <c r="AT68">
-        <v>0.4002364482404346</v>
+        <v>0.40023644824043458</v>
       </c>
       <c r="AU68">
         <v>0.2143578612482884</v>
       </c>
       <c r="AV68">
-        <v>0.2582525219575302</v>
-      </c>
-    </row>
-    <row r="69" spans="1:53">
+        <v>0.25825252195753018</v>
+      </c>
+    </row>
+    <row r="69" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>45519</v>
       </c>
@@ -1862,31 +1883,31 @@
         <v>0.44</v>
       </c>
       <c r="AP69">
-        <v>0.2993727917628917</v>
+        <v>0.29937279176289172</v>
       </c>
       <c r="AQ69">
-        <v>0.2881898502275533</v>
+        <v>0.28818985022755328</v>
       </c>
       <c r="AR69">
         <v>0.33</v>
       </c>
       <c r="AS69">
-        <v>0.5031808943414688</v>
+        <v>0.50318089434146884</v>
       </c>
       <c r="AT69">
-        <v>0.4391745998095615</v>
+        <v>0.43917459980956147</v>
       </c>
       <c r="AU69">
-        <v>0.5113565490928664</v>
+        <v>0.51135654909286643</v>
       </c>
       <c r="AV69">
         <v>0.43</v>
       </c>
       <c r="AW69">
-        <v>-0.04717552522494373</v>
-      </c>
-    </row>
-    <row r="70" spans="1:53">
+        <v>-4.7175525224943733E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>45611</v>
       </c>
@@ -1894,7 +1915,7 @@
         <v>0.42</v>
       </c>
       <c r="AP70">
-        <v>0.244502720332008</v>
+        <v>0.24450272033200801</v>
       </c>
       <c r="AQ70">
         <v>0.2306318627505419</v>
@@ -1906,10 +1927,10 @@
         <v>0.3806835540682556</v>
       </c>
       <c r="AT70">
-        <v>0.4401293578968364</v>
+        <v>0.44012935789683638</v>
       </c>
       <c r="AU70">
-        <v>0.5319922642991344</v>
+        <v>0.53199226429913438</v>
       </c>
       <c r="AV70">
         <v>0.52</v>
@@ -1921,18 +1942,18 @@
         <v>0.2142297805489477</v>
       </c>
     </row>
-    <row r="71" spans="1:53">
+    <row r="71" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>45703</v>
       </c>
       <c r="AS71">
-        <v>0.3317631665228618</v>
+        <v>0.33176316652286181</v>
       </c>
       <c r="AT71">
-        <v>0.3995464824356247</v>
+        <v>0.39954648243562468</v>
       </c>
       <c r="AU71">
-        <v>0.4438035404671155</v>
+        <v>0.44380354046711551</v>
       </c>
       <c r="AV71">
         <v>0.46</v>
@@ -1941,24 +1962,24 @@
         <v>0.313</v>
       </c>
       <c r="AX71">
-        <v>0.1997641087852884</v>
+        <v>0.19976410878528841</v>
       </c>
       <c r="AY71">
-        <v>0.2394371574146135</v>
-      </c>
-    </row>
-    <row r="72" spans="1:53">
+        <v>0.23943715741461349</v>
+      </c>
+    </row>
+    <row r="72" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>45792</v>
       </c>
       <c r="AS72">
-        <v>0.2588354823876813</v>
+        <v>0.25883548238768128</v>
       </c>
       <c r="AT72">
         <v>0.3</v>
       </c>
       <c r="AU72">
-        <v>0.3505327396020164</v>
+        <v>0.35053273960201642</v>
       </c>
       <c r="AV72">
         <v>0.39</v>
@@ -1967,62 +1988,62 @@
         <v>0.42</v>
       </c>
       <c r="AX72">
-        <v>0.15047372915447</v>
+        <v>0.15047372915446999</v>
       </c>
       <c r="AY72">
-        <v>0.2008403794809794</v>
+        <v>0.20084037948097941</v>
       </c>
       <c r="AZ72">
-        <v>0.04717883418304325</v>
-      </c>
-    </row>
-    <row r="73" spans="1:53">
+        <v>4.717883418304325E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>45884</v>
       </c>
       <c r="AS73">
-        <v>0.2150495036779461</v>
+        <v>0.21504950367794609</v>
       </c>
       <c r="AT73">
         <v>0.24</v>
       </c>
       <c r="AU73">
-        <v>0.3087982760018804</v>
+        <v>0.30879827600188042</v>
       </c>
       <c r="AV73">
         <v>0.32</v>
       </c>
       <c r="AW73">
-        <v>0.4476495795507702</v>
+        <v>0.44764957955077023</v>
       </c>
       <c r="AX73">
         <v>0.1088966743764388</v>
       </c>
       <c r="AY73">
-        <v>0.1461563307127136</v>
+        <v>0.14615633071271361</v>
       </c>
       <c r="AZ73">
-        <v>0.09547648014918764</v>
+        <v>9.5476480149187637E-2</v>
       </c>
       <c r="BA73">
-        <v>0.0959495356205764</v>
-      </c>
-    </row>
-    <row r="74" spans="1:53">
+        <v>9.5949535620576398E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>45976</v>
       </c>
       <c r="AS74">
-        <v>0.1955592423774846</v>
+        <v>0.19555924237748459</v>
       </c>
       <c r="AT74">
-        <v>0.1937436086810038</v>
+        <v>0.19374360868100379</v>
       </c>
       <c r="AU74">
-        <v>0.2817608875922701</v>
+        <v>0.28176088759227008</v>
       </c>
       <c r="AV74">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="AW74">
         <v>0.35</v>
@@ -2031,41 +2052,41 @@
         <v>0.1026967013396813</v>
       </c>
       <c r="AY74">
-        <v>0.129482876906593</v>
+        <v>0.12948287690659299</v>
       </c>
       <c r="AZ74">
-        <v>0.2122469267199563</v>
+        <v>0.21224692671995629</v>
       </c>
       <c r="BA74">
-        <v>0.210242839568366</v>
-      </c>
-    </row>
-    <row r="75" spans="1:53">
+        <v>0.21024283956836601</v>
+      </c>
+    </row>
+    <row r="75" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>46068</v>
       </c>
       <c r="AW75">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="AX75">
-        <v>0.125750128448999</v>
+        <v>0.12575012844899899</v>
       </c>
       <c r="AY75">
-        <v>0.1298443609737205</v>
+        <v>0.12984436097372051</v>
       </c>
       <c r="AZ75">
-        <v>0.3495381990520059</v>
+        <v>0.34953819905200589</v>
       </c>
       <c r="BA75">
         <v>0.3427795693520892</v>
       </c>
     </row>
-    <row r="76" spans="1:53">
+    <row r="76" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>46157</v>
       </c>
       <c r="AW76">
-        <v>0.232</v>
+        <v>0.23200000000000001</v>
       </c>
       <c r="AX76">
         <v>0.1310957798170875</v>
@@ -2074,13 +2095,13 @@
         <v>0.1303356798241424</v>
       </c>
       <c r="AZ76">
-        <v>0.4205703094340976</v>
+        <v>0.42057030943409762</v>
       </c>
       <c r="BA76">
-        <v>0.3950901243604932</v>
-      </c>
-    </row>
-    <row r="77" spans="1:53">
+        <v>0.39509012436049318</v>
+      </c>
+    </row>
+    <row r="77" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>46249</v>
       </c>
@@ -2088,19 +2109,19 @@
         <v>0.23</v>
       </c>
       <c r="AX77">
-        <v>0.1373901188520961</v>
+        <v>0.13739011885209609</v>
       </c>
       <c r="AY77">
-        <v>0.1296615697287535</v>
+        <v>0.12966156972875351</v>
       </c>
       <c r="AZ77">
-        <v>0.4358627554389471</v>
+        <v>0.43586275543894709</v>
       </c>
       <c r="BA77">
         <v>0.3991974873073616</v>
       </c>
     </row>
-    <row r="78" spans="1:53">
+    <row r="78" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>46341</v>
       </c>
@@ -2108,19 +2129,19 @@
         <v>0.23</v>
       </c>
       <c r="AX78">
-        <v>0.1351447789384395</v>
+        <v>0.13514477893843951</v>
       </c>
       <c r="AY78">
-        <v>0.1302853466008287</v>
+        <v>0.13028534660082869</v>
       </c>
       <c r="AZ78">
-        <v>0.4473082918826918</v>
+        <v>0.44730829188269178</v>
       </c>
       <c r="BA78">
-        <v>0.411</v>
-      </c>
-    </row>
-    <row r="79" spans="1:53">
+        <v>0.41099999999999998</v>
+      </c>
+    </row>
+    <row r="79" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>46433</v>
       </c>
@@ -2128,23 +2149,23 @@
         <v>0.3557500822747528</v>
       </c>
     </row>
-    <row r="80" spans="1:53">
+    <row r="80" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>46522</v>
       </c>
       <c r="BA80">
-        <v>0.353772834911311</v>
-      </c>
-    </row>
-    <row r="81" spans="1:53">
+        <v>0.35377283491131101</v>
+      </c>
+    </row>
+    <row r="81" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>46614</v>
       </c>
       <c r="BA81">
-        <v>0.3196762671417588</v>
-      </c>
-    </row>
-    <row r="82" spans="1:53">
+        <v>0.31967626714175879</v>
+      </c>
+    </row>
+    <row r="82" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>46706</v>
       </c>
